--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tff3</t>
+  </si>
+  <si>
+    <t>Ackr3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tff3</t>
-  </si>
-  <si>
-    <t>Ackr3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H2">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I2">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J2">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.40907733333333</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N2">
-        <v>43.227232</v>
+        <v>26.260958</v>
       </c>
       <c r="O2">
-        <v>0.3521459138460628</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P2">
-        <v>0.3878253582448773</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q2">
-        <v>6.055189007121779</v>
+        <v>5.699579116256445</v>
       </c>
       <c r="R2">
-        <v>54.49670106409601</v>
+        <v>51.296212046308</v>
       </c>
       <c r="S2">
-        <v>0.05685014691077167</v>
+        <v>0.03296824002065049</v>
       </c>
       <c r="T2">
-        <v>0.06357973238415145</v>
+        <v>0.03678376623000994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H3">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I3">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J3">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>45.49788700000001</v>
       </c>
       <c r="O3">
-        <v>0.3706435562582379</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P3">
-        <v>0.4081971828582489</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q3">
-        <v>6.373258070506779</v>
+        <v>9.874689513573557</v>
       </c>
       <c r="R3">
-        <v>57.35932263456101</v>
+        <v>88.872205622162</v>
       </c>
       <c r="S3">
-        <v>0.05983639109901111</v>
+        <v>0.05711845162116452</v>
       </c>
       <c r="T3">
-        <v>0.06691947056671044</v>
+        <v>0.06372896370983148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4202343333333334</v>
+        <v>0.6511086666666667</v>
       </c>
       <c r="H4">
-        <v>1.260703</v>
+        <v>1.953326</v>
       </c>
       <c r="I4">
-        <v>0.1614391781232571</v>
+        <v>0.130785147027719</v>
       </c>
       <c r="J4">
-        <v>0.1639390798783366</v>
+        <v>0.1307851470277189</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.2931905</v>
+        <v>10.806162</v>
       </c>
       <c r="N4">
-        <v>22.586381</v>
+        <v>21.612324</v>
       </c>
       <c r="O4">
-        <v>0.2759962207753789</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P4">
-        <v>0.2026401159061096</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q4">
-        <v>4.745786380973835</v>
+        <v>7.035985731604001</v>
       </c>
       <c r="R4">
-        <v>28.47471828584301</v>
+        <v>42.215914389624</v>
       </c>
       <c r="S4">
-        <v>0.04455660304710218</v>
+        <v>0.04069845538590395</v>
       </c>
       <c r="T4">
-        <v>0.0332206341480871</v>
+        <v>0.0302724170878775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4202343333333334</v>
+        <v>2.197774333333333</v>
       </c>
       <c r="H5">
-        <v>1.260703</v>
+        <v>6.593323</v>
       </c>
       <c r="I5">
-        <v>0.1614391781232571</v>
+        <v>0.441456632408641</v>
       </c>
       <c r="J5">
-        <v>0.1639390798783366</v>
+        <v>0.4414566324086409</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.049687</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N5">
-        <v>0.149061</v>
+        <v>26.260958</v>
       </c>
       <c r="O5">
-        <v>0.001214309120320449</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P5">
-        <v>0.00133734299076424</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q5">
-        <v>0.02088018332033334</v>
+        <v>19.23855315371489</v>
       </c>
       <c r="R5">
-        <v>0.187921649883</v>
+        <v>173.146978383434</v>
       </c>
       <c r="S5">
-        <v>0.0001960370663721086</v>
+        <v>0.1112821183958414</v>
       </c>
       <c r="T5">
-        <v>0.0002192427793876323</v>
+        <v>0.1241611753035325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.703006</v>
+        <v>2.197774333333333</v>
       </c>
       <c r="H6">
-        <v>5.109018</v>
+        <v>6.593323</v>
       </c>
       <c r="I6">
-        <v>0.6542347142323977</v>
+        <v>0.441456632408641</v>
       </c>
       <c r="J6">
-        <v>0.6643656039541902</v>
+        <v>0.4414566324086409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.40907733333333</v>
+        <v>15.16596233333333</v>
       </c>
       <c r="N6">
-        <v>43.227232</v>
+        <v>45.49788700000001</v>
       </c>
       <c r="O6">
-        <v>0.3521459138460628</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P6">
-        <v>0.3878253582448773</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q6">
-        <v>24.53874515313067</v>
+        <v>33.33136275650011</v>
       </c>
       <c r="R6">
-        <v>220.848706378176</v>
+        <v>299.982264808501</v>
       </c>
       <c r="S6">
-        <v>0.2303860813131854</v>
+        <v>0.1927995638199724</v>
       </c>
       <c r="T6">
-        <v>0.2576578283591081</v>
+        <v>0.2151129111035215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.197774333333333</v>
+      </c>
+      <c r="H7">
+        <v>6.593323</v>
+      </c>
+      <c r="I7">
+        <v>0.441456632408641</v>
+      </c>
+      <c r="J7">
+        <v>0.4414566324086409</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>1.703006</v>
-      </c>
-      <c r="H7">
-        <v>5.109018</v>
-      </c>
-      <c r="I7">
-        <v>0.6542347142323977</v>
-      </c>
-      <c r="J7">
-        <v>0.6643656039541902</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.16596233333333</v>
+        <v>10.806162</v>
       </c>
       <c r="N7">
-        <v>45.49788700000001</v>
+        <v>21.612324</v>
       </c>
       <c r="O7">
-        <v>0.3706435562582379</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P7">
-        <v>0.4081971828582489</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q7">
-        <v>25.82772484944067</v>
+        <v>23.749505485442</v>
       </c>
       <c r="R7">
-        <v>232.449523644966</v>
+        <v>142.497032912652</v>
       </c>
       <c r="S7">
-        <v>0.2424878811106878</v>
+        <v>0.1373749501928272</v>
       </c>
       <c r="T7">
-        <v>0.2711921679220195</v>
+        <v>0.1021825460015869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.703006</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H8">
-        <v>5.109018</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I8">
-        <v>0.6542347142323977</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J8">
-        <v>0.6643656039541902</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.2931905</v>
+        <v>8.753652666666667</v>
       </c>
       <c r="N8">
-        <v>22.586381</v>
+        <v>26.260958</v>
       </c>
       <c r="O8">
-        <v>0.2759962207753789</v>
+        <v>0.2520793895170918</v>
       </c>
       <c r="P8">
-        <v>0.2026401159061096</v>
+        <v>0.2812533920401061</v>
       </c>
       <c r="Q8">
-        <v>19.232371180643</v>
+        <v>18.64158030280622</v>
       </c>
       <c r="R8">
-        <v>115.394227083858</v>
+        <v>167.774222725256</v>
       </c>
       <c r="S8">
-        <v>0.1805663086282018</v>
+        <v>0.1078290311005999</v>
       </c>
       <c r="T8">
-        <v>0.1346271229893096</v>
+        <v>0.1203084505065636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.703006</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H9">
-        <v>5.109018</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I9">
-        <v>0.6542347142323977</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J9">
-        <v>0.6643656039541902</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.049687</v>
+        <v>15.16596233333333</v>
       </c>
       <c r="N9">
-        <v>0.149061</v>
+        <v>45.49788700000001</v>
       </c>
       <c r="O9">
-        <v>0.001214309120320449</v>
+        <v>0.4367350033185243</v>
       </c>
       <c r="P9">
-        <v>0.00133734299076424</v>
+        <v>0.4872798261741802</v>
       </c>
       <c r="Q9">
-        <v>0.08461725912200001</v>
+        <v>32.29708962325378</v>
       </c>
       <c r="R9">
-        <v>0.761555332098</v>
+        <v>290.673806609284</v>
       </c>
       <c r="S9">
-        <v>0.000794443180322643</v>
+        <v>0.1868169878773874</v>
       </c>
       <c r="T9">
-        <v>0.0008884846837529872</v>
+        <v>0.2084379513608272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,495 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1190815</v>
+        <v>2.129577333333333</v>
       </c>
       <c r="H10">
-        <v>0.238163</v>
+        <v>6.388731999999999</v>
       </c>
       <c r="I10">
-        <v>0.04574690348881053</v>
+        <v>0.4277582205636402</v>
       </c>
       <c r="J10">
-        <v>0.03097019923095629</v>
+        <v>0.4277582205636401</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.40907733333333</v>
+        <v>10.806162</v>
       </c>
       <c r="N10">
-        <v>43.227232</v>
+        <v>21.612324</v>
       </c>
       <c r="O10">
-        <v>0.3521459138460628</v>
+        <v>0.311185607164384</v>
       </c>
       <c r="P10">
-        <v>0.3878253582448773</v>
+        <v>0.2314667817857137</v>
       </c>
       <c r="Q10">
-        <v>1.715854542469333</v>
+        <v>23.012557655528</v>
       </c>
       <c r="R10">
-        <v>10.295127254816</v>
+        <v>138.075345933168</v>
       </c>
       <c r="S10">
-        <v>0.01610958513469482</v>
+        <v>0.1331122015856528</v>
       </c>
       <c r="T10">
-        <v>0.01201102861166085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.1190815</v>
-      </c>
-      <c r="H11">
-        <v>0.238163</v>
-      </c>
-      <c r="I11">
-        <v>0.04574690348881053</v>
-      </c>
-      <c r="J11">
-        <v>0.03097019923095629</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>15.16596233333333</v>
-      </c>
-      <c r="N11">
-        <v>45.49788700000001</v>
-      </c>
-      <c r="O11">
-        <v>0.3706435562582379</v>
-      </c>
-      <c r="P11">
-        <v>0.4081971828582489</v>
-      </c>
-      <c r="Q11">
-        <v>1.805985543596833</v>
-      </c>
-      <c r="R11">
-        <v>10.835913261581</v>
-      </c>
-      <c r="S11">
-        <v>0.01695579499689513</v>
-      </c>
-      <c r="T11">
-        <v>0.01264194807863506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.1190815</v>
-      </c>
-      <c r="H12">
-        <v>0.238163</v>
-      </c>
-      <c r="I12">
-        <v>0.04574690348881053</v>
-      </c>
-      <c r="J12">
-        <v>0.03097019923095629</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>11.2931905</v>
-      </c>
-      <c r="N12">
-        <v>22.586381</v>
-      </c>
-      <c r="O12">
-        <v>0.2759962207753789</v>
-      </c>
-      <c r="P12">
-        <v>0.2026401159061096</v>
-      </c>
-      <c r="Q12">
-        <v>1.34481006452575</v>
-      </c>
-      <c r="R12">
-        <v>5.379240258103001</v>
-      </c>
-      <c r="S12">
-        <v>0.0126259724750877</v>
-      </c>
-      <c r="T12">
-        <v>0.006275804761796289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.1190815</v>
-      </c>
-      <c r="H13">
-        <v>0.238163</v>
-      </c>
-      <c r="I13">
-        <v>0.04574690348881053</v>
-      </c>
-      <c r="J13">
-        <v>0.03097019923095629</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.049687</v>
-      </c>
-      <c r="N13">
-        <v>0.149061</v>
-      </c>
-      <c r="O13">
-        <v>0.001214309120320449</v>
-      </c>
-      <c r="P13">
-        <v>0.00133734299076424</v>
-      </c>
-      <c r="Q13">
-        <v>0.005916802490500001</v>
-      </c>
-      <c r="R13">
-        <v>0.035500814943</v>
-      </c>
-      <c r="S13">
-        <v>5.555088213288199E-05</v>
-      </c>
-      <c r="T13">
-        <v>4.141777886409144E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H14">
-        <v>1.082186</v>
-      </c>
-      <c r="I14">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J14">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>14.40907733333333</v>
-      </c>
-      <c r="N14">
-        <v>43.227232</v>
-      </c>
-      <c r="O14">
-        <v>0.3521459138460628</v>
-      </c>
-      <c r="P14">
-        <v>0.3878253582448773</v>
-      </c>
-      <c r="Q14">
-        <v>5.197767254350223</v>
-      </c>
-      <c r="R14">
-        <v>46.779905289152</v>
-      </c>
-      <c r="S14">
-        <v>0.04880010048741087</v>
-      </c>
-      <c r="T14">
-        <v>0.0545767688899569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H15">
-        <v>1.082186</v>
-      </c>
-      <c r="I15">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J15">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>15.16596233333333</v>
-      </c>
-      <c r="N15">
-        <v>45.49788700000001</v>
-      </c>
-      <c r="O15">
-        <v>0.3706435562582379</v>
-      </c>
-      <c r="P15">
-        <v>0.4081971828582489</v>
-      </c>
-      <c r="Q15">
-        <v>5.470797371220224</v>
-      </c>
-      <c r="R15">
-        <v>49.23717634098201</v>
-      </c>
-      <c r="S15">
-        <v>0.05136348905164376</v>
-      </c>
-      <c r="T15">
-        <v>0.05744359629088382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H16">
-        <v>1.082186</v>
-      </c>
-      <c r="I16">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J16">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>11.2931905</v>
-      </c>
-      <c r="N16">
-        <v>22.586381</v>
-      </c>
-      <c r="O16">
-        <v>0.2759962207753789</v>
-      </c>
-      <c r="P16">
-        <v>0.2026401159061096</v>
-      </c>
-      <c r="Q16">
-        <v>4.073777551477668</v>
-      </c>
-      <c r="R16">
-        <v>24.442665308866</v>
-      </c>
-      <c r="S16">
-        <v>0.03824733662498727</v>
-      </c>
-      <c r="T16">
-        <v>0.0285165540069166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.3607286666666667</v>
-      </c>
-      <c r="H17">
-        <v>1.082186</v>
-      </c>
-      <c r="I17">
-        <v>0.1385792041555347</v>
-      </c>
-      <c r="J17">
-        <v>0.1407251169365168</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.049687</v>
-      </c>
-      <c r="N17">
-        <v>0.149061</v>
-      </c>
-      <c r="O17">
-        <v>0.001214309120320449</v>
-      </c>
-      <c r="P17">
-        <v>0.00133734299076424</v>
-      </c>
-      <c r="Q17">
-        <v>0.01792352526066667</v>
-      </c>
-      <c r="R17">
-        <v>0.161311727346</v>
-      </c>
-      <c r="S17">
-        <v>0.0001682779914928152</v>
-      </c>
-      <c r="T17">
-        <v>0.0001881977487595288</v>
+        <v>0.09901181869624928</v>
       </c>
     </row>
   </sheetData>
